--- a/data.xlsx
+++ b/data.xlsx
@@ -1,6 +1,369 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\FLOW\project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+  </bookViews>
+  <sheets>
+    <sheet name="CFF" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>REVENUS</t>
+  </si>
+  <si>
+    <t>Salaire</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Vente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPENSES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loyer </t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telephone </t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transports </t>
+  </si>
+  <si>
+    <t>Electricte</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Divers Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salle de sport </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divers </t>
+  </si>
+  <si>
+    <t>Autres</t>
+  </si>
+  <si>
+    <t>DEPENSES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Flux depense </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solde actuel du compte </t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Gill Sans Nova Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Gill Sans Nova Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+  </fonts>
+  <fills count="14">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF79F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8E8E8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10,39 +373,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -75,26 +438,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -127,23 +473,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -205,6 +534,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -213,13 +549,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -284,36 +613,1117 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="20" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20">
+        <v>45505</v>
+      </c>
+      <c r="C1" s="20">
+        <f>B1+7</f>
+        <v>45512</v>
+      </c>
+      <c r="D1" s="20">
+        <f t="shared" ref="D1:T1" si="0">C1+7</f>
+        <v>45519</v>
+      </c>
+      <c r="E1" s="20">
+        <f t="shared" si="0"/>
+        <v>45526</v>
+      </c>
+      <c r="F1" s="20">
+        <f t="shared" si="0"/>
+        <v>45533</v>
+      </c>
+      <c r="G1" s="20">
+        <f t="shared" si="0"/>
+        <v>45540</v>
+      </c>
+      <c r="H1" s="20">
+        <f t="shared" si="0"/>
+        <v>45547</v>
+      </c>
+      <c r="I1" s="20">
+        <f t="shared" si="0"/>
+        <v>45554</v>
+      </c>
+      <c r="J1" s="20">
+        <f t="shared" si="0"/>
+        <v>45561</v>
+      </c>
+      <c r="K1" s="20">
+        <f t="shared" si="0"/>
+        <v>45568</v>
+      </c>
+      <c r="L1" s="20">
+        <f t="shared" si="0"/>
+        <v>45575</v>
+      </c>
+      <c r="M1" s="20">
+        <f t="shared" si="0"/>
+        <v>45582</v>
+      </c>
+      <c r="N1" s="20">
+        <f t="shared" si="0"/>
+        <v>45589</v>
+      </c>
+      <c r="O1" s="20">
+        <f t="shared" si="0"/>
+        <v>45596</v>
+      </c>
+      <c r="P1" s="20">
+        <f t="shared" si="0"/>
+        <v>45603</v>
+      </c>
+      <c r="Q1" s="20">
+        <f t="shared" si="0"/>
+        <v>45610</v>
+      </c>
+      <c r="R1" s="20">
+        <f t="shared" si="0"/>
+        <v>45617</v>
+      </c>
+      <c r="S1" s="20">
+        <f t="shared" si="0"/>
+        <v>45624</v>
+      </c>
+      <c r="T1" s="20">
+        <f t="shared" si="0"/>
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3500</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3500</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3500</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3500</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>3500</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <f>SUM(B2:B5)</f>
+        <v>3500</v>
+      </c>
+      <c r="C6" s="6">
+        <f>SUM(C2:C5)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <f>SUM(D2:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <f>SUM(E2:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <f>SUM(F2:F5)</f>
+        <v>3500</v>
+      </c>
+      <c r="G6" s="6">
+        <f>SUM(G2:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <f>SUM(H2:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <f>SUM(I2:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <f>SUM(J2:J5)</f>
+        <v>3500</v>
+      </c>
+      <c r="K6" s="6">
+        <f>SUM(K2:K5)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <f>SUM(L2:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <f>SUM(M2:M5)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <f>SUM(N2:N5)</f>
+        <v>3500</v>
+      </c>
+      <c r="O6" s="6">
+        <f>SUM(O2:O5)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <f>SUM(P2:P5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>SUM(Q2:Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <f>SUM(R2:R5)</f>
+        <v>3500</v>
+      </c>
+      <c r="S6" s="6">
+        <f>SUM(S2:S5)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <f>SUM(T2:T5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1200</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <v>1200</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10">
+        <v>1200</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10">
+        <v>60</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
+        <v>70</v>
+      </c>
+      <c r="F11" s="10">
+        <v>70</v>
+      </c>
+      <c r="G11" s="10">
+        <v>60</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10">
+        <v>70</v>
+      </c>
+      <c r="J11" s="10">
+        <v>70</v>
+      </c>
+      <c r="K11" s="10">
+        <v>60</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10">
+        <v>70</v>
+      </c>
+      <c r="N11" s="10">
+        <v>70</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10">
+        <v>70</v>
+      </c>
+      <c r="S11" s="10">
+        <v>70</v>
+      </c>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
+        <v>30</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10">
+        <v>30</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10">
+        <v>30</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>210</v>
+      </c>
+      <c r="C13" s="10">
+        <v>180</v>
+      </c>
+      <c r="D13" s="10">
+        <v>120</v>
+      </c>
+      <c r="E13" s="10">
+        <v>130</v>
+      </c>
+      <c r="F13" s="10">
+        <v>200</v>
+      </c>
+      <c r="G13" s="10">
+        <v>140</v>
+      </c>
+      <c r="H13" s="10">
+        <v>100</v>
+      </c>
+      <c r="I13" s="10">
+        <v>120</v>
+      </c>
+      <c r="J13" s="10">
+        <v>180</v>
+      </c>
+      <c r="K13" s="10">
+        <v>290</v>
+      </c>
+      <c r="L13" s="10">
+        <v>100</v>
+      </c>
+      <c r="M13" s="10">
+        <v>120</v>
+      </c>
+      <c r="N13" s="10">
+        <v>180</v>
+      </c>
+      <c r="O13" s="10">
+        <v>210</v>
+      </c>
+      <c r="P13" s="10">
+        <v>290</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>100</v>
+      </c>
+      <c r="R13" s="10">
+        <v>120</v>
+      </c>
+      <c r="S13" s="10">
+        <v>180</v>
+      </c>
+      <c r="T13" s="10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
+        <v>5</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10">
+        <v>5</v>
+      </c>
+      <c r="L14" s="10">
+        <v>5</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="10">
+        <v>5</v>
+      </c>
+      <c r="P14" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>5</v>
+      </c>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10">
+        <v>50</v>
+      </c>
+      <c r="D15" s="10">
+        <v>50</v>
+      </c>
+      <c r="E15" s="10">
+        <v>50</v>
+      </c>
+      <c r="F15" s="10">
+        <v>50</v>
+      </c>
+      <c r="G15" s="10">
+        <v>50</v>
+      </c>
+      <c r="H15" s="10">
+        <v>50</v>
+      </c>
+      <c r="I15" s="10">
+        <v>50</v>
+      </c>
+      <c r="J15" s="10">
+        <v>50</v>
+      </c>
+      <c r="K15" s="10">
+        <v>50</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10">
+        <v>50</v>
+      </c>
+      <c r="N15" s="10">
+        <v>100</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10">
+        <v>50</v>
+      </c>
+      <c r="S15" s="10">
+        <v>100</v>
+      </c>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
+        <v>60</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10">
+        <v>60</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10">
+        <v>60</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10">
+        <v>60</v>
+      </c>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <v>15.99</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10">
+        <v>15.99</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10">
+        <v>15.99</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10">
+        <v>15.99</v>
+      </c>
+      <c r="P17" s="10">
+        <v>15.99</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10">
+        <v>120</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10">
+        <v>120</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10">
+        <v>120</v>
+      </c>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
+        <v>40</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10">
+        <v>40</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10">
+        <v>40</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10">
+        <v>40</v>
+      </c>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
+        <v>45</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10">
+        <v>30</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <v>45</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10">
+        <v>45</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10">
+        <v>45</v>
+      </c>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="1:20" ht="16" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
+        <v>80</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <v>80</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10">
+        <v>30</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10">
+        <v>80</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10">
+        <v>30</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10">
+        <v>80</v>
+      </c>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10">
+        <v>30</v>
+      </c>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="13">
+        <f>SUM(B10:B21)</f>
+        <v>1490.99</v>
+      </c>
+      <c r="C22" s="13">
+        <f>SUM(C10:C21)</f>
+        <v>445</v>
+      </c>
+      <c r="D22" s="13">
+        <f>SUM(D10:D21)</f>
+        <v>295</v>
+      </c>
+      <c r="E22" s="13">
+        <f>SUM(E10:E21)</f>
+        <v>350</v>
+      </c>
+      <c r="F22" s="13">
+        <f>SUM(F10:F21)</f>
+        <v>1555</v>
+      </c>
+      <c r="G22" s="13">
+        <f>SUM(G10:G21)</f>
+        <v>265.99</v>
+      </c>
+      <c r="H22" s="13">
+        <f>SUM(H10:H21)</f>
+        <v>310</v>
+      </c>
+      <c r="I22" s="13">
+        <f>SUM(I10:I21)</f>
+        <v>280</v>
+      </c>
+      <c r="J22" s="13">
+        <f>SUM(J10:J21)</f>
+        <v>1590</v>
+      </c>
+      <c r="K22" s="13">
+        <f>SUM(K10:K21)</f>
+        <v>420.99</v>
+      </c>
+      <c r="L22" s="13">
+        <f>SUM(L10:L21)</f>
+        <v>335</v>
+      </c>
+      <c r="M22" s="13">
+        <f>SUM(M10:M21)</f>
+        <v>325</v>
+      </c>
+      <c r="N22" s="13">
+        <f>SUM(N10:N21)</f>
+        <v>440</v>
+      </c>
+      <c r="O22" s="13">
+        <f>SUM(O10:O21)</f>
+        <v>230.99</v>
+      </c>
+      <c r="P22" s="13">
+        <f>SUM(P10:P21)</f>
+        <v>420.99</v>
+      </c>
+      <c r="Q22" s="13">
+        <f>SUM(Q10:Q21)</f>
+        <v>335</v>
+      </c>
+      <c r="R22" s="13">
+        <f>SUM(R10:R21)</f>
+        <v>325</v>
+      </c>
+      <c r="S22" s="13">
+        <f>SUM(S10:S21)</f>
+        <v>440</v>
+      </c>
+      <c r="T22" s="13">
+        <f>SUM(T10:T21)</f>
+        <v>230.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="15">
+        <f>B6</f>
+        <v>3500</v>
+      </c>
+      <c r="C25" s="15">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="15">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <f>F6</f>
+        <v>3500</v>
+      </c>
+      <c r="G25" s="15">
+        <f>G6</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="15">
+        <f>J6</f>
+        <v>3500</v>
+      </c>
+      <c r="K25" s="15">
+        <f>K6</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <f>L6</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <f>M6</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
+        <f>N6</f>
+        <v>3500</v>
+      </c>
+      <c r="O25" s="15">
+        <f>O6</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="15">
+        <f>P6</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="15">
+        <f>Q6</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="15">
+        <f>R6</f>
+        <v>3500</v>
+      </c>
+      <c r="S25" s="15">
+        <f>S6</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="15">
+        <f>T6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="13">
+        <f>B22</f>
+        <v>1490.99</v>
+      </c>
+      <c r="C26" s="13">
+        <f>C22</f>
+        <v>445</v>
+      </c>
+      <c r="D26" s="13">
+        <f>D22</f>
+        <v>295</v>
+      </c>
+      <c r="E26" s="13">
+        <f>E22</f>
+        <v>350</v>
+      </c>
+      <c r="F26" s="13">
+        <f>F22</f>
+        <v>1555</v>
+      </c>
+      <c r="G26" s="13">
+        <f>G22</f>
+        <v>265.99</v>
+      </c>
+      <c r="H26" s="13">
+        <f>H22</f>
+        <v>310</v>
+      </c>
+      <c r="I26" s="13">
+        <f>I22</f>
+        <v>280</v>
+      </c>
+      <c r="J26" s="13">
+        <f>J22</f>
+        <v>1590</v>
+      </c>
+      <c r="K26" s="13">
+        <f>K22</f>
+        <v>420.99</v>
+      </c>
+      <c r="L26" s="13">
+        <f>L22</f>
+        <v>335</v>
+      </c>
+      <c r="M26" s="13">
+        <f>M22</f>
+        <v>325</v>
+      </c>
+      <c r="N26" s="13">
+        <f>N22</f>
+        <v>440</v>
+      </c>
+      <c r="O26" s="13">
+        <f>O22</f>
+        <v>230.99</v>
+      </c>
+      <c r="P26" s="13">
+        <f>P22</f>
+        <v>420.99</v>
+      </c>
+      <c r="Q26" s="13">
+        <f>Q22</f>
+        <v>335</v>
+      </c>
+      <c r="R26" s="13">
+        <f>R22</f>
+        <v>325</v>
+      </c>
+      <c r="S26" s="13">
+        <f>S22</f>
+        <v>440</v>
+      </c>
+      <c r="T26" s="13">
+        <f>T22</f>
+        <v>230.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="17">
+        <f>B25-B26</f>
+        <v>2009.01</v>
+      </c>
+      <c r="C27" s="17">
+        <f t="shared" ref="C27:T27" si="1">C25-C26</f>
+        <v>-445</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="1"/>
+        <v>-295</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="1"/>
+        <v>-350</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="1"/>
+        <v>1945</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="1"/>
+        <v>-265.99</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="1"/>
+        <v>-310</v>
+      </c>
+      <c r="I27" s="17">
+        <f t="shared" si="1"/>
+        <v>-280</v>
+      </c>
+      <c r="J27" s="17">
+        <f t="shared" si="1"/>
+        <v>1910</v>
+      </c>
+      <c r="K27" s="17">
+        <f t="shared" si="1"/>
+        <v>-420.99</v>
+      </c>
+      <c r="L27" s="17">
+        <f t="shared" si="1"/>
+        <v>-335</v>
+      </c>
+      <c r="M27" s="17">
+        <f t="shared" si="1"/>
+        <v>-325</v>
+      </c>
+      <c r="N27" s="17">
+        <f t="shared" si="1"/>
+        <v>3060</v>
+      </c>
+      <c r="O27" s="17">
+        <f t="shared" si="1"/>
+        <v>-230.99</v>
+      </c>
+      <c r="P27" s="17">
+        <f t="shared" si="1"/>
+        <v>-420.99</v>
+      </c>
+      <c r="Q27" s="17">
+        <f t="shared" si="1"/>
+        <v>-335</v>
+      </c>
+      <c r="R27" s="17">
+        <f t="shared" si="1"/>
+        <v>3175</v>
+      </c>
+      <c r="S27" s="17">
+        <f t="shared" si="1"/>
+        <v>-440</v>
+      </c>
+      <c r="T27" s="17">
+        <f t="shared" si="1"/>
+        <v>-230.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19">
+        <v>1564.01</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>